--- a/data/trans_orig/IQ23_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ23_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7800F3D-1DCF-4FEE-A124-F7781B1D70C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C04E6AB-FFF4-40CF-94C2-10F97E084402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D2ECFA6-2C9F-44AF-B984-5408C4ACC929}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B783C6BF-E536-4832-9B5C-3D911522D5B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
   <si>
     <t>Menores que duermen las horas recomendadas en función de su edad en 2007 (Tasa respuesta: 99,33%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>SÍ</t>
@@ -77,28 +77,28 @@
     <t>83,52%</t>
   </si>
   <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>85,67%</t>
   </si>
   <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>NO</t>
@@ -107,202 +107,202 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>77,4%</t>
   </si>
   <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
   </si>
   <si>
     <t>78,29%</t>
   </si>
   <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>77,82%</t>
   </si>
   <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
   </si>
   <si>
     <t>22,6%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
   </si>
   <si>
     <t>22,18%</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>77,64%</t>
   </si>
   <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>22,36%</t>
   </si>
   <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>71,79%</t>
   </si>
   <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>66,31%</t>
   </si>
   <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
   </si>
   <si>
     <t>69,17%</t>
   </si>
   <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
   </si>
   <si>
     <t>28,21%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
   </si>
   <si>
     <t>33,69%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,1051 +311,1045 @@
     <t>68,29%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
   </si>
   <si>
     <t>71,23%</t>
   </si>
   <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>65,43%</t>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
   </si>
   <si>
     <t>73,02%</t>
   </si>
   <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2016 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
   </si>
   <si>
     <t>75,93%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
   </si>
   <si>
     <t>24,07%</t>
   </si>
   <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2015 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
   </si>
   <si>
     <t>25,28%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
   </si>
   <si>
     <t>24,75%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>71,7%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>70,8%</t>
   </si>
   <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
     <t>30,02%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
   </si>
   <si>
     <t>29,2%</t>
   </si>
   <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>73,22%</t>
   </si>
   <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
   </si>
   <si>
     <t>26,78%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
   </si>
   <si>
     <t>72,25%</t>
   </si>
   <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
+    <t>78,18%</t>
   </si>
   <si>
     <t>69,36%</t>
   </si>
   <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
   </si>
   <si>
     <t>27,75%</t>
   </si>
   <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
+    <t>21,82%</t>
   </si>
   <si>
     <t>30,64%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
   </si>
   <si>
     <t>70,04%</t>
   </si>
   <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
   </si>
   <si>
     <t>67,73%</t>
   </si>
   <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
   </si>
   <si>
     <t>34,65%</t>
   </si>
   <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
   </si>
   <si>
     <t>32,27%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
   </si>
   <si>
     <t>70,03%</t>
   </si>
   <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
   </si>
   <si>
     <t>70,7%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>29,97%</t>
   </si>
   <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
   </si>
   <si>
     <t>29,3%</t>
   </si>
   <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
   <si>
     <t>29,65%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE6A9E2-0B9F-4987-8492-5432C1D5C41C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDAF061-FC76-495B-8442-E0397AFA605D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2669,10 +2663,10 @@
         <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>737</v>
@@ -2681,13 +2675,13 @@
         <v>497172</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1535</v>
@@ -2696,13 +2690,13 @@
         <v>1029540</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,13 +2711,13 @@
         <v>187111</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="H20" s="7">
         <v>272</v>
@@ -2732,13 +2726,13 @@
         <v>177969</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>555</v>
@@ -2747,13 +2741,13 @@
         <v>365080</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,7 +2803,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2830,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27719657-6613-4F03-B1B4-037E15ABE698}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFA15C0-60BB-4715-9B9B-26D4E95C5490}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2847,7 +2841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2954,13 +2948,13 @@
         <v>21843</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -2969,13 +2963,13 @@
         <v>18607</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -2984,13 +2978,13 @@
         <v>40450</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +2999,13 @@
         <v>3612</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3279,13 +3273,13 @@
         <v>150691</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>460</v>
@@ -3294,13 +3288,13 @@
         <v>310265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3309,13 @@
         <v>63593</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>89</v>
@@ -3330,13 +3324,13 @@
         <v>55667</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -3345,13 +3339,13 @@
         <v>119260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3413,13 @@
         <v>120089</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>159</v>
@@ -3434,13 +3428,13 @@
         <v>102626</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>344</v>
@@ -3449,13 +3443,13 @@
         <v>222715</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3464,13 @@
         <v>46503</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
@@ -3485,13 +3479,13 @@
         <v>52075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>153</v>
@@ -3500,13 +3494,13 @@
         <v>98578</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3568,13 @@
         <v>148069</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>196</v>
@@ -3589,13 +3583,13 @@
         <v>150457</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>397</v>
@@ -3604,13 +3598,13 @@
         <v>298527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3619,13 @@
         <v>60327</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -3640,13 +3634,13 @@
         <v>59056</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>160</v>
@@ -3655,13 +3649,13 @@
         <v>119382</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3723,13 @@
         <v>537955</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>731</v>
@@ -3744,13 +3738,13 @@
         <v>510951</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>1497</v>
@@ -3759,13 +3753,13 @@
         <v>1048906</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3774,13 @@
         <v>214216</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>292</v>
@@ -3795,13 +3789,13 @@
         <v>198978</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>598</v>
@@ -3810,13 +3804,13 @@
         <v>413194</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,7 +3866,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297FE9A1-DFBA-44D1-8943-87862535489C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1B7630-0D44-4C21-ACDD-E4F58EBA8EAF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3910,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4017,13 +4011,13 @@
         <v>20809</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -4032,13 +4026,13 @@
         <v>17627</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -4047,13 +4041,13 @@
         <v>38436</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4062,13 @@
         <v>4765</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4083,13 +4077,13 @@
         <v>4900</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4098,13 +4092,13 @@
         <v>9665</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,10 +4169,10 @@
         <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -4187,13 +4181,13 @@
         <v>89175</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>241</v>
@@ -4202,13 +4196,13 @@
         <v>173397</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,10 +4220,10 @@
         <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -4238,13 +4232,13 @@
         <v>22005</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>87</v>
@@ -4253,13 +4247,13 @@
         <v>60285</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4321,13 @@
         <v>144842</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>212</v>
@@ -4342,13 +4336,13 @@
         <v>132710</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>426</v>
@@ -4357,13 +4351,13 @@
         <v>277552</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4372,13 @@
         <v>78891</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
@@ -4393,13 +4387,13 @@
         <v>73437</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>237</v>
@@ -4408,13 +4402,13 @@
         <v>152328</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4476,13 @@
         <v>108402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -4497,13 +4491,13 @@
         <v>102938</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>329</v>
@@ -4512,13 +4506,13 @@
         <v>211341</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4527,13 @@
         <v>55975</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>85</v>
@@ -4548,13 +4542,13 @@
         <v>50454</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>169</v>
@@ -4563,13 +4557,13 @@
         <v>106428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4631,13 @@
         <v>136001</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>187</v>
@@ -4652,13 +4646,13 @@
         <v>138144</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>379</v>
@@ -4667,13 +4661,13 @@
         <v>274145</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4682,13 @@
         <v>66055</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -4703,13 +4697,13 @@
         <v>67863</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>185</v>
@@ -4718,13 +4712,13 @@
         <v>133918</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4786,13 @@
         <v>494276</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>716</v>
@@ -4807,13 +4801,13 @@
         <v>480594</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>1418</v>
@@ -4822,13 +4816,13 @@
         <v>974870</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4837,13 @@
         <v>243966</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>336</v>
@@ -4858,13 +4852,13 @@
         <v>218659</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>689</v>
@@ -4873,13 +4867,13 @@
         <v>462625</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4929,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4956,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E61110-E085-4651-8A0C-7EF8CD082718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C397721B-6D2D-4894-BAD3-1CD495CAD8A1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4973,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5080,13 +5074,13 @@
         <v>9642</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5095,13 +5089,13 @@
         <v>12161</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -5110,13 +5104,13 @@
         <v>21803</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5125,13 @@
         <v>3056</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -5146,13 +5140,13 @@
         <v>4114</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -5161,13 +5155,13 @@
         <v>7170</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5229,13 @@
         <v>79210</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -5250,13 +5244,13 @@
         <v>73502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>210</v>
@@ -5265,13 +5259,13 @@
         <v>152712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>93</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5280,13 @@
         <v>33983</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -5301,13 +5295,13 @@
         <v>29012</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>107</v>
@@ -5316,13 +5310,13 @@
         <v>62995</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5384,13 @@
         <v>180490</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
         <v>196</v>
@@ -5405,13 +5399,13 @@
         <v>140843</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>429</v>
@@ -5420,13 +5414,13 @@
         <v>321334</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>291</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5435,13 @@
         <v>69696</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H11" s="7">
         <v>84</v>
@@ -5456,13 +5450,13 @@
         <v>51509</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M11" s="7">
         <v>194</v>
@@ -5471,13 +5465,13 @@
         <v>121204</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5539,13 @@
         <v>115061</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
         <v>153</v>
@@ -5560,10 +5554,10 @@
         <v>120014</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>390</v>
@@ -5596,13 +5590,13 @@
         <v>57759</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>70</v>
@@ -5611,13 +5605,13 @@
         <v>46099</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>151</v>
@@ -5626,13 +5620,13 @@
         <v>103859</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5694,13 @@
         <v>122582</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -5715,13 +5709,13 @@
         <v>111157</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>314</v>
@@ -5730,13 +5724,13 @@
         <v>233739</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5745,13 @@
         <v>52434</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>88</v>
@@ -5766,13 +5760,13 @@
         <v>58926</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>162</v>
@@ -5781,13 +5775,13 @@
         <v>111360</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5849,13 @@
         <v>506986</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>630</v>
@@ -5870,13 +5864,13 @@
         <v>457678</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>1282</v>
@@ -5885,13 +5879,13 @@
         <v>964664</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5900,13 @@
         <v>216927</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H20" s="7">
         <v>304</v>
@@ -5921,13 +5915,13 @@
         <v>189660</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>627</v>
@@ -5936,13 +5930,13 @@
         <v>406587</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,7 +5992,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IQ23_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ23_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C04E6AB-FFF4-40CF-94C2-10F97E084402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{330B6B7C-0AB6-41EE-8E57-377CF4C3285A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B783C6BF-E536-4832-9B5C-3D911522D5B3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CDB4A7DE-065B-4654-9CAB-253FF96C95D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="362">
   <si>
     <t>Menores que duermen las horas recomendadas en función de su edad en 2007 (Tasa respuesta: 99,33%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1288 +68,1063 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>SÍ</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2016 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>Menores que duermen las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2016 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>Menores que duermen las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
   </si>
 </sst>
 </file>
@@ -1761,8 +1536,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDAF061-FC76-495B-8442-E0397AFA605D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C043DF-B25D-40EE-A790-690246A43352}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1879,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="D4" s="7">
-        <v>20621</v>
+        <v>108670</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1894,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="I4" s="7">
-        <v>18808</v>
+        <v>118944</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1909,10 +1684,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>51</v>
+        <v>332</v>
       </c>
       <c r="N4" s="7">
-        <v>39429</v>
+        <v>227614</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1930,10 +1705,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>4068</v>
+        <v>28065</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1945,10 +1720,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="I5" s="7">
-        <v>3146</v>
+        <v>32776</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1960,10 +1735,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="N5" s="7">
-        <v>7214</v>
+        <v>60841</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1981,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="D6" s="7">
-        <v>24689</v>
+        <v>136735</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1996,10 +1771,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="I6" s="7">
-        <v>21954</v>
+        <v>151720</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2011,10 +1786,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>60</v>
+        <v>424</v>
       </c>
       <c r="N6" s="7">
-        <v>46643</v>
+        <v>288455</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2034,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="D7" s="7">
-        <v>98324</v>
+        <v>150293</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2049,10 +1824,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="I7" s="7">
-        <v>89861</v>
+        <v>164884</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2064,10 +1839,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>281</v>
+        <v>491</v>
       </c>
       <c r="N7" s="7">
-        <v>188184</v>
+        <v>315177</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2085,10 +1860,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D8" s="7">
-        <v>28707</v>
+        <v>44216</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2100,10 +1875,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I8" s="7">
-        <v>24919</v>
+        <v>46572</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2115,10 +1890,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="N8" s="7">
-        <v>53627</v>
+        <v>90788</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2136,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="D9" s="7">
-        <v>127031</v>
+        <v>194509</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2151,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>172</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114780</v>
+        <v>211456</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2166,10 +1941,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>364</v>
+        <v>632</v>
       </c>
       <c r="N9" s="7">
-        <v>241811</v>
+        <v>405965</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2189,10 +1964,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="D10" s="7">
-        <v>164884</v>
+        <v>90777</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2204,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>240</v>
+        <v>163</v>
       </c>
       <c r="I10" s="7">
-        <v>150293</v>
+        <v>107097</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2219,10 +1994,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>491</v>
+        <v>311</v>
       </c>
       <c r="N10" s="7">
-        <v>315177</v>
+        <v>197873</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2240,10 +2015,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D11" s="7">
-        <v>46572</v>
+        <v>46130</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2255,10 +2030,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I11" s="7">
-        <v>44216</v>
+        <v>42077</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2270,10 +2045,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="N11" s="7">
-        <v>90788</v>
+        <v>88208</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2291,10 +2066,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>211456</v>
+        <v>136907</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2306,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="I12" s="7">
-        <v>194509</v>
+        <v>149174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2321,10 +2096,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>632</v>
+        <v>458</v>
       </c>
       <c r="N12" s="7">
-        <v>405965</v>
+        <v>286081</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2344,10 +2119,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="D13" s="7">
-        <v>107097</v>
+        <v>147432</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2359,10 +2134,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="I13" s="7">
-        <v>90777</v>
+        <v>141443</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2374,10 +2149,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>311</v>
+        <v>401</v>
       </c>
       <c r="N13" s="7">
-        <v>197873</v>
+        <v>288875</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2395,10 +2170,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7">
-        <v>42077</v>
+        <v>59558</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2410,10 +2185,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="I14" s="7">
-        <v>46130</v>
+        <v>65686</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2425,10 +2200,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="N14" s="7">
-        <v>88208</v>
+        <v>125244</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2446,10 +2221,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="D15" s="7">
-        <v>149174</v>
+        <v>206990</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2461,10 +2236,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="I15" s="7">
-        <v>136907</v>
+        <v>207129</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2476,10 +2251,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>458</v>
+        <v>576</v>
       </c>
       <c r="N15" s="7">
-        <v>286081</v>
+        <v>414119</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2493,55 +2268,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>209</v>
+        <v>737</v>
       </c>
       <c r="D16" s="7">
-        <v>141443</v>
+        <v>497172</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>798</v>
+      </c>
+      <c r="I16" s="7">
+        <v>532368</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>192</v>
-      </c>
-      <c r="I16" s="7">
-        <v>147432</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1535</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1029540</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>401</v>
-      </c>
-      <c r="N16" s="7">
-        <v>288875</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,49 +2325,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="D17" s="7">
-        <v>65686</v>
+        <v>177969</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>283</v>
+      </c>
+      <c r="I17" s="7">
+        <v>187111</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>79</v>
-      </c>
-      <c r="I17" s="7">
-        <v>59558</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>555</v>
+      </c>
+      <c r="N17" s="7">
+        <v>365080</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>175</v>
-      </c>
-      <c r="N17" s="7">
-        <v>125244</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>305</v>
+        <v>1009</v>
       </c>
       <c r="D18" s="7">
-        <v>207129</v>
+        <v>675141</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2616,10 +2391,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>271</v>
+        <v>1081</v>
       </c>
       <c r="I18" s="7">
-        <v>206990</v>
+        <v>719479</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2631,10 +2406,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>576</v>
+        <v>2090</v>
       </c>
       <c r="N18" s="7">
-        <v>414119</v>
+        <v>1394620</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2647,171 +2422,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>798</v>
-      </c>
-      <c r="D19" s="7">
-        <v>532368</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>737</v>
-      </c>
-      <c r="I19" s="7">
-        <v>497172</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1535</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1029540</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>283</v>
-      </c>
-      <c r="D20" s="7">
-        <v>187111</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="7">
-        <v>272</v>
-      </c>
-      <c r="I20" s="7">
-        <v>177969</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>555</v>
-      </c>
-      <c r="N20" s="7">
-        <v>365080</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1081</v>
-      </c>
-      <c r="D21" s="7">
-        <v>719479</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1009</v>
-      </c>
-      <c r="I21" s="7">
-        <v>675141</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2090</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1394620</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2824,8 +2443,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFA15C0-60BB-4715-9B9B-26D4E95C5490}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E8455C-9965-4A6A-B9B8-1F24797DEA4B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2841,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,49 +2561,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="D4" s="7">
-        <v>21843</v>
+        <v>107177</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I4" s="7">
-        <v>18607</v>
+        <v>110222</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="N4" s="7">
-        <v>40450</v>
+        <v>217399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,49 +2612,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>3612</v>
+        <v>32180</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="I5" s="7">
-        <v>3766</v>
+        <v>43794</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="N5" s="7">
-        <v>7378</v>
+        <v>75974</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>139357</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3059,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>154016</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3074,10 +2693,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>399</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>293373</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3097,49 +2716,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>230</v>
+      </c>
+      <c r="D7" s="7">
+        <v>150691</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="7">
-        <v>88379</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="I7" s="7">
-        <v>88570</v>
+        <v>159574</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="N7" s="7">
-        <v>176949</v>
+        <v>310265</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,49 +2767,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D8" s="7">
-        <v>40182</v>
+        <v>55667</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="I8" s="7">
-        <v>28414</v>
+        <v>63593</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="N8" s="7">
-        <v>68596</v>
+        <v>119260</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,10 +2818,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>182</v>
+        <v>319</v>
       </c>
       <c r="D9" s="7">
-        <v>128561</v>
+        <v>206358</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3214,10 +2833,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="I9" s="7">
-        <v>116984</v>
+        <v>223167</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3229,10 +2848,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>345</v>
+        <v>642</v>
       </c>
       <c r="N9" s="7">
-        <v>245545</v>
+        <v>429525</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3252,49 +2871,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="D10" s="7">
-        <v>159574</v>
+        <v>102626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="I10" s="7">
-        <v>150691</v>
+        <v>120089</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="N10" s="7">
-        <v>310265</v>
+        <v>222715</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,49 +2922,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7">
-        <v>63593</v>
+        <v>52075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I11" s="7">
-        <v>55667</v>
+        <v>46503</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="N11" s="7">
-        <v>119260</v>
+        <v>98578</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>223167</v>
+        <v>154701</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3369,10 +2988,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="I12" s="7">
-        <v>206358</v>
+        <v>166592</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3384,10 +3003,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>642</v>
+        <v>497</v>
       </c>
       <c r="N12" s="7">
-        <v>429525</v>
+        <v>321293</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3407,49 +3026,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D13" s="7">
-        <v>120089</v>
+        <v>150457</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="I13" s="7">
-        <v>102626</v>
+        <v>148069</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="N13" s="7">
-        <v>222715</v>
+        <v>298527</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,49 +3077,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7">
-        <v>46503</v>
+        <v>59056</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
       </c>
       <c r="I14" s="7">
-        <v>52075</v>
+        <v>60327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="N14" s="7">
-        <v>98578</v>
+        <v>119382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>166592</v>
+        <v>209513</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3524,10 +3143,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="I15" s="7">
-        <v>154701</v>
+        <v>208396</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3539,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="N15" s="7">
-        <v>321293</v>
+        <v>417909</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3556,55 +3175,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>201</v>
+        <v>731</v>
       </c>
       <c r="D16" s="7">
-        <v>148069</v>
+        <v>510951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
-        <v>196</v>
+        <v>766</v>
       </c>
       <c r="I16" s="7">
-        <v>150457</v>
+        <v>537955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
-        <v>397</v>
+        <v>1497</v>
       </c>
       <c r="N16" s="7">
-        <v>298527</v>
+        <v>1048906</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,49 +3232,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="D17" s="7">
-        <v>60327</v>
+        <v>198978</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="I17" s="7">
-        <v>59056</v>
+        <v>214216</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>160</v>
+        <v>598</v>
       </c>
       <c r="N17" s="7">
-        <v>119382</v>
+        <v>413194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,10 +3283,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>283</v>
+        <v>1023</v>
       </c>
       <c r="D18" s="7">
-        <v>208396</v>
+        <v>709929</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3679,10 +3298,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1072</v>
       </c>
       <c r="I18" s="7">
-        <v>209513</v>
+        <v>752171</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3694,10 +3313,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>557</v>
+        <v>2095</v>
       </c>
       <c r="N18" s="7">
-        <v>417909</v>
+        <v>1462100</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3710,171 +3329,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>766</v>
-      </c>
-      <c r="D19" s="7">
-        <v>537955</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>731</v>
-      </c>
-      <c r="I19" s="7">
-        <v>510951</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1497</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1048906</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>306</v>
-      </c>
-      <c r="D20" s="7">
-        <v>214216</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>292</v>
-      </c>
-      <c r="I20" s="7">
-        <v>198978</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>598</v>
-      </c>
-      <c r="N20" s="7">
-        <v>413194</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1072</v>
-      </c>
-      <c r="D21" s="7">
-        <v>752171</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1023</v>
-      </c>
-      <c r="I21" s="7">
-        <v>709929</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2095</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1462100</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3887,8 +3350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1B7630-0D44-4C21-ACDD-E4F58EBA8EAF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45A3E56-71C1-4A3C-B249-5956D8C50C3C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3904,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,49 +3468,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="D4" s="7">
-        <v>20809</v>
+        <v>106802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="I4" s="7">
-        <v>17627</v>
+        <v>105031</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="N4" s="7">
-        <v>38436</v>
+        <v>211833</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +3519,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>4765</v>
+        <v>26905</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="I5" s="7">
-        <v>4900</v>
+        <v>43045</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="N5" s="7">
-        <v>9665</v>
+        <v>69950</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4122,10 +3585,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4137,10 +3600,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4160,49 +3623,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="D7" s="7">
-        <v>84222</v>
+        <v>132710</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="I7" s="7">
-        <v>89175</v>
+        <v>144842</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>241</v>
+        <v>426</v>
       </c>
       <c r="N7" s="7">
-        <v>173397</v>
+        <v>277552</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,49 +3674,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="D8" s="7">
-        <v>38280</v>
+        <v>73437</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="I8" s="7">
-        <v>22005</v>
+        <v>78891</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="N8" s="7">
-        <v>60285</v>
+        <v>152328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,10 +3725,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>206147</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4277,10 +3740,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>223733</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4292,10 +3755,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>663</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>429880</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4315,49 +3778,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="D10" s="7">
-        <v>144842</v>
+        <v>102938</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="I10" s="7">
-        <v>132710</v>
+        <v>108402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
-        <v>426</v>
+        <v>329</v>
       </c>
       <c r="N10" s="7">
-        <v>277552</v>
+        <v>211341</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,49 +3829,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D11" s="7">
-        <v>78891</v>
+        <v>50454</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="H11" s="7">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="I11" s="7">
-        <v>73437</v>
+        <v>55975</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="N11" s="7">
-        <v>152328</v>
+        <v>106428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,10 +3880,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>331</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>223733</v>
+        <v>153392</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4432,10 +3895,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>206147</v>
+        <v>164377</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4447,10 +3910,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>663</v>
+        <v>498</v>
       </c>
       <c r="N12" s="7">
-        <v>429880</v>
+        <v>317769</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4470,49 +3933,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="D13" s="7">
-        <v>108402</v>
+        <v>138144</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="I13" s="7">
-        <v>102938</v>
+        <v>136001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="N13" s="7">
-        <v>211341</v>
+        <v>274145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,49 +3984,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D14" s="7">
-        <v>55975</v>
+        <v>67863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I14" s="7">
-        <v>50454</v>
+        <v>66055</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="M14" s="7">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="N14" s="7">
-        <v>106428</v>
+        <v>133918</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,10 +4035,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="D15" s="7">
-        <v>164377</v>
+        <v>206007</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4587,10 +4050,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="I15" s="7">
-        <v>153392</v>
+        <v>202056</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4602,10 +4065,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="N15" s="7">
-        <v>317769</v>
+        <v>408063</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4619,55 +4082,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>192</v>
+        <v>716</v>
       </c>
       <c r="D16" s="7">
-        <v>136001</v>
+        <v>480594</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="H16" s="7">
-        <v>187</v>
+        <v>702</v>
       </c>
       <c r="I16" s="7">
-        <v>138144</v>
+        <v>494276</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
-        <v>379</v>
+        <v>1418</v>
       </c>
       <c r="N16" s="7">
-        <v>274145</v>
+        <v>974870</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,49 +4139,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="D17" s="7">
-        <v>66055</v>
+        <v>218659</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
-        <v>92</v>
+        <v>353</v>
       </c>
       <c r="I17" s="7">
-        <v>67863</v>
+        <v>243966</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
-        <v>185</v>
+        <v>689</v>
       </c>
       <c r="N17" s="7">
-        <v>133918</v>
+        <v>462625</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,10 +4190,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>285</v>
+        <v>1052</v>
       </c>
       <c r="D18" s="7">
-        <v>202056</v>
+        <v>699253</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4742,10 +4205,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>279</v>
+        <v>1055</v>
       </c>
       <c r="I18" s="7">
-        <v>206007</v>
+        <v>738242</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4757,10 +4220,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>564</v>
+        <v>2107</v>
       </c>
       <c r="N18" s="7">
-        <v>408063</v>
+        <v>1437495</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4773,171 +4236,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>702</v>
-      </c>
-      <c r="D19" s="7">
-        <v>494276</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H19" s="7">
-        <v>716</v>
-      </c>
-      <c r="I19" s="7">
-        <v>480594</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1418</v>
-      </c>
-      <c r="N19" s="7">
-        <v>974870</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>353</v>
-      </c>
-      <c r="D20" s="7">
-        <v>243966</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="7">
-        <v>336</v>
-      </c>
-      <c r="I20" s="7">
-        <v>218659</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M20" s="7">
-        <v>689</v>
-      </c>
-      <c r="N20" s="7">
-        <v>462625</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1055</v>
-      </c>
-      <c r="D21" s="7">
-        <v>738242</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1052</v>
-      </c>
-      <c r="I21" s="7">
-        <v>699253</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2107</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1437495</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4950,8 +4257,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C397721B-6D2D-4894-BAD3-1CD495CAD8A1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B546AA7F-1387-45B8-A2CF-0534970429AE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4967,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,49 +4375,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="D4" s="7">
-        <v>9642</v>
+        <v>82276</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="I4" s="7">
-        <v>12161</v>
+        <v>99299</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="N4" s="7">
-        <v>21803</v>
+        <v>181576</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,49 +4426,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="D5" s="7">
-        <v>3056</v>
+        <v>32922</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="I5" s="7">
-        <v>4114</v>
+        <v>39512</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="N5" s="7">
-        <v>7170</v>
+        <v>72434</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>357</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,10 +4477,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>115198</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5185,10 +4492,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="I6" s="7">
-        <v>16275</v>
+        <v>138811</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5200,10 +4507,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>363</v>
       </c>
       <c r="N6" s="7">
-        <v>28973</v>
+        <v>254010</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5223,49 +4530,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>79210</v>
+        <v>139833</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="I7" s="7">
-        <v>73502</v>
+        <v>182355</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="M7" s="7">
-        <v>210</v>
+        <v>429</v>
       </c>
       <c r="N7" s="7">
-        <v>152712</v>
+        <v>322189</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>93</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,49 +4581,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7">
-        <v>33983</v>
+        <v>50679</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>366</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>367</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="I8" s="7">
-        <v>29012</v>
+        <v>72680</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>369</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="N8" s="7">
-        <v>62995</v>
+        <v>123359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>372</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>103</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,10 +4632,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>113193</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5340,10 +4647,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>166</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>102514</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5355,10 +4662,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>317</v>
+        <v>623</v>
       </c>
       <c r="N9" s="7">
-        <v>215707</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5378,49 +4685,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="D10" s="7">
-        <v>180490</v>
+        <v>140656</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="I10" s="7">
-        <v>140843</v>
+        <v>122336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>376</v>
+        <v>315</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="M10" s="7">
-        <v>429</v>
+        <v>296</v>
       </c>
       <c r="N10" s="7">
-        <v>321334</v>
+        <v>262992</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,49 +4736,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7">
-        <v>69696</v>
+        <v>47136</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>380</v>
+        <v>321</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>381</v>
+        <v>322</v>
       </c>
       <c r="H11" s="7">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I11" s="7">
-        <v>51509</v>
+        <v>62554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>382</v>
+        <v>87</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="M11" s="7">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="N11" s="7">
-        <v>121204</v>
+        <v>109690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,10 +4787,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>187792</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5495,10 +4802,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>184890</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5510,10 +4817,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>447</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>372682</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5533,49 +4840,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D13" s="7">
-        <v>115061</v>
+        <v>106720</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>329</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="H13" s="7">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="I13" s="7">
-        <v>120014</v>
+        <v>126382</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="M13" s="7">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="N13" s="7">
-        <v>235074</v>
+        <v>233103</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,49 +4891,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D14" s="7">
-        <v>57759</v>
+        <v>59436</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="H14" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I14" s="7">
-        <v>46099</v>
+        <v>54856</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="M14" s="7">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="N14" s="7">
-        <v>103859</v>
+        <v>114292</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,10 +4942,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D15" s="7">
-        <v>172820</v>
+        <v>166156</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5650,10 +4957,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>166113</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5665,10 +4972,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>338933</v>
+        <v>347395</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5682,55 +4989,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>164</v>
+        <v>630</v>
       </c>
       <c r="D16" s="7">
-        <v>122582</v>
+        <v>469486</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="H16" s="7">
-        <v>150</v>
+        <v>652</v>
       </c>
       <c r="I16" s="7">
-        <v>111157</v>
+        <v>530373</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="M16" s="7">
-        <v>314</v>
+        <v>1282</v>
       </c>
       <c r="N16" s="7">
-        <v>233739</v>
+        <v>999859</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,49 +5046,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="D17" s="7">
-        <v>52434</v>
+        <v>190173</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="H17" s="7">
-        <v>88</v>
+        <v>323</v>
       </c>
       <c r="I17" s="7">
-        <v>58926</v>
+        <v>229602</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
-        <v>162</v>
+        <v>627</v>
       </c>
       <c r="N17" s="7">
-        <v>111360</v>
+        <v>419775</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,10 +5097,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>934</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>659659</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5805,10 +5112,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>238</v>
+        <v>975</v>
       </c>
       <c r="I18" s="7">
-        <v>170083</v>
+        <v>759975</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5820,10 +5127,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>476</v>
+        <v>1909</v>
       </c>
       <c r="N18" s="7">
-        <v>345099</v>
+        <v>1419634</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5836,171 +5143,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>652</v>
-      </c>
-      <c r="D19" s="7">
-        <v>506986</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H19" s="7">
-        <v>630</v>
-      </c>
-      <c r="I19" s="7">
-        <v>457678</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1282</v>
-      </c>
-      <c r="N19" s="7">
-        <v>964664</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>323</v>
-      </c>
-      <c r="D20" s="7">
-        <v>216927</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H20" s="7">
-        <v>304</v>
-      </c>
-      <c r="I20" s="7">
-        <v>189660</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="M20" s="7">
-        <v>627</v>
-      </c>
-      <c r="N20" s="7">
-        <v>406587</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>975</v>
-      </c>
-      <c r="D21" s="7">
-        <v>723913</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>934</v>
-      </c>
-      <c r="I21" s="7">
-        <v>647338</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1909</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1371251</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
